--- a/truckee_flow.xlsx
+++ b/truckee_flow.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahorst/Documents/Bren Courses/ESM 244/Winter 2018/Assignments/Assignment 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vienna/GitHub/ESM244/244-assignment-3/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8363215E-E141-CE48-BB1E-4F8DA68C898E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="truckee_flow" localSheetId="0">Sheet1!$A$1:$H$239</definedName>
+    <definedName name="truckee_flow" localSheetId="0">Sheet1!$A$1:$H$203</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,8 +28,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="truckee_flow" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="truckee_flow" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="/Users/ahorst/Documents/Bren Courses/ESM 244/Winter 2018/Assignments/Assignment 3/truckee_flow.txt">
       <textFields>
         <textField/>
@@ -39,87 +40,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="40">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t># US Geological Survey, Water Resources Data</t>
-  </si>
-  <si>
-    <t># retrieved: 2018-02-25 16:03:07 EST      (vaww02)</t>
-  </si>
-  <si>
-    <t># This file contains USGS Surface-Water Monthly Statistics</t>
-  </si>
-  <si>
-    <t># Note:The statistics generated from  this site are based on approved daily-mean data and may not match those published by the USGS in official publications.</t>
-  </si>
-  <si>
-    <t># The user is responsible for assessment and use of statistics from this site.</t>
-  </si>
-  <si>
-    <t># For more details on why the statistics may not match, visit https://waterdata.usgs.gov/nwis/?dv_statistics_disclaimer.</t>
-  </si>
-  <si>
-    <t># ** No Incomplete data have been used for statistical calculation</t>
-  </si>
-  <si>
-    <t># This file includes the following columns:</t>
-  </si>
-  <si>
-    <t># agency_cd    agency code</t>
-  </si>
-  <si>
-    <t># site_no USGS site number</t>
-  </si>
-  <si>
-    <t># parameter_cd</t>
-  </si>
-  <si>
-    <t># ts_id</t>
-  </si>
-  <si>
-    <t># year_nu Calendar year for value</t>
-  </si>
-  <si>
-    <t># month_nu     Month for value</t>
-  </si>
-  <si>
-    <t># mean_va monthly-mean value.</t>
-  </si>
-  <si>
-    <t>#         if there is not complete record</t>
-  </si>
-  <si>
-    <t>#         for a month this field is blank</t>
-  </si>
-  <si>
-    <t># Sites in this file include:</t>
-  </si>
-  <si>
-    <t># USGS 10338000 TRUCKEE R NR TRUCKEE CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># </t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Explanation of Parameter Code and ts_id used in the Statistics Data </t>
-  </si>
-  <si>
-    <t>Parameter Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="8">
   <si>
     <t>ts_id</t>
-  </si>
-  <si>
-    <t>Location Name</t>
-  </si>
-  <si>
-    <t># 00060</t>
-  </si>
-  <si>
-    <t>Discharge, cubic feet per second</t>
   </si>
   <si>
     <t>agency_cd</t>
@@ -140,31 +63,13 @@
     <t>mean_va</t>
   </si>
   <si>
-    <t>5s</t>
-  </si>
-  <si>
-    <t>15s</t>
-  </si>
-  <si>
-    <t>3n</t>
-  </si>
-  <si>
-    <t>4s</t>
-  </si>
-  <si>
-    <t>2s</t>
-  </si>
-  <si>
-    <t>12n</t>
-  </si>
-  <si>
     <t>USGS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -206,12 +111,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="truckee_flow" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="truckee_flow" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,11 +384,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H238"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -495,245 +403,860 @@
     <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>10338000</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>7600</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>207.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>10338000</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>7600</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>143.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>10338000</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>7600</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>320.10000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>10338000</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>7600</v>
+      </c>
+      <c r="E5">
+        <v>2000</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>327.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>10338000</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>7600</v>
+      </c>
+      <c r="E6">
+        <v>2000</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>434.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>10338000</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>7600</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>281.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>10338000</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>7600</v>
+      </c>
+      <c r="E8">
+        <v>2000</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>296.60000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10338000</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>7600</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>322.39999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>10338000</v>
+      </c>
+      <c r="C10">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>7600</v>
+      </c>
+      <c r="E10">
+        <v>2000</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>244.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10338000</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>7600</v>
+      </c>
+      <c r="E11">
+        <v>2000</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>253.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>10338000</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>7600</v>
+      </c>
+      <c r="E12">
+        <v>2000</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>225.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>10338000</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>7600</v>
+      </c>
+      <c r="E13">
+        <v>2000</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>10338000</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14">
+        <v>7600</v>
+      </c>
+      <c r="E14">
+        <v>2001</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="G14">
+        <v>317.89999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>10338000</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>7600</v>
+      </c>
+      <c r="E15">
+        <v>2001</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="G15">
+        <v>253.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>10338000</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>7600</v>
+      </c>
+      <c r="E16">
+        <v>2001</v>
+      </c>
+      <c r="F16">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="G16">
+        <v>278.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>10338000</v>
+      </c>
+      <c r="C17">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>7600</v>
+      </c>
+      <c r="E17">
+        <v>2001</v>
+      </c>
+      <c r="F17">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="G17">
+        <v>243.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>10338000</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18">
+        <v>7600</v>
+      </c>
+      <c r="E18">
+        <v>2001</v>
+      </c>
+      <c r="F18">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="G18">
+        <v>256.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>10338000</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>7600</v>
+      </c>
+      <c r="E19">
+        <v>2001</v>
+      </c>
+      <c r="F19">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="G19">
+        <v>297.60000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>10338000</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>7600</v>
+      </c>
+      <c r="E20">
+        <v>2001</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>366.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>10338000</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>7600</v>
+      </c>
+      <c r="E21">
+        <v>2001</v>
+      </c>
+      <c r="F21">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="G21">
+        <v>434.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>10338000</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>7600</v>
+      </c>
+      <c r="E22">
+        <v>2001</v>
+      </c>
+      <c r="F22">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="G22">
+        <v>386.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>10338000</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>7600</v>
+      </c>
+      <c r="E23">
+        <v>2001</v>
+      </c>
+      <c r="F23">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="G23">
+        <v>247.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>10338000</v>
+      </c>
+      <c r="C24">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>7600</v>
+      </c>
+      <c r="E24">
+        <v>2001</v>
+      </c>
+      <c r="F24">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="G24">
+        <v>170.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>10338000</v>
+      </c>
+      <c r="C25">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>7600</v>
+      </c>
+      <c r="E25">
+        <v>2001</v>
+      </c>
+      <c r="F25">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>143.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>10338000</v>
+      </c>
+      <c r="C26">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>7600</v>
+      </c>
+      <c r="E26">
+        <v>2002</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>10338000</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>7600</v>
+      </c>
+      <c r="E27">
+        <v>2002</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>146.80000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>10338000</v>
+      </c>
+      <c r="C28">
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>7600</v>
+      </c>
+      <c r="E28">
+        <v>2002</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>129.69999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>10338000</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+      <c r="D29">
+        <v>7600</v>
+      </c>
+      <c r="E29">
+        <v>2002</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29">
+        <v>308.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>10338000</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>7600</v>
+      </c>
+      <c r="E30">
+        <v>2002</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>324.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>10338000</v>
+      </c>
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>7600</v>
+      </c>
+      <c r="E31">
+        <v>2002</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>257.39999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>10338000</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <v>7600</v>
+      </c>
+      <c r="E32">
+        <v>2002</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>377.5</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>10338000</v>
+      </c>
+      <c r="C33">
+        <v>60</v>
+      </c>
+      <c r="D33">
+        <v>7600</v>
       </c>
       <c r="E33">
-        <v>7600</v>
+        <v>2002</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>10338000</v>
+      </c>
+      <c r="C34">
+        <v>60</v>
+      </c>
+      <c r="D34">
+        <v>7600</v>
+      </c>
+      <c r="E34">
+        <v>2002</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+      <c r="G34">
+        <v>133.9</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>10338000</v>
+      </c>
+      <c r="C35">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>7600</v>
+      </c>
+      <c r="E35">
+        <v>2002</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>26.6</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>10338000</v>
+      </c>
+      <c r="C36">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>7600</v>
+      </c>
+      <c r="E36">
+        <v>2002</v>
+      </c>
+      <c r="F36">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>46.5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>10338000</v>
+      </c>
+      <c r="C37">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>7600</v>
+      </c>
+      <c r="E37">
+        <v>2002</v>
+      </c>
+      <c r="F37">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>69.5</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B38">
         <v>10338000</v>
@@ -745,18 +1268,18 @@
         <v>7600</v>
       </c>
       <c r="E38">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>207.9</v>
+        <v>149.9</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <v>10338000</v>
@@ -768,18 +1291,18 @@
         <v>7600</v>
       </c>
       <c r="E39">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39">
-        <v>143.6</v>
+        <v>110.8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B40">
         <v>10338000</v>
@@ -791,18 +1314,18 @@
         <v>7600</v>
       </c>
       <c r="E40">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
       <c r="G40">
-        <v>320.10000000000002</v>
+        <v>163.1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B41">
         <v>10338000</v>
@@ -814,18 +1337,18 @@
         <v>7600</v>
       </c>
       <c r="E41">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F41">
         <v>4</v>
       </c>
       <c r="G41">
-        <v>327.7</v>
+        <v>204.7</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>10338000</v>
@@ -837,18 +1360,18 @@
         <v>7600</v>
       </c>
       <c r="E42">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F42">
         <v>5</v>
       </c>
       <c r="G42">
-        <v>434.8</v>
+        <v>392.1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B43">
         <v>10338000</v>
@@ -860,18 +1383,18 @@
         <v>7600</v>
       </c>
       <c r="E43">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F43">
         <v>6</v>
       </c>
       <c r="G43">
-        <v>281.5</v>
+        <v>289.89999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B44">
         <v>10338000</v>
@@ -883,18 +1406,18 @@
         <v>7600</v>
       </c>
       <c r="E44">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F44">
         <v>7</v>
       </c>
       <c r="G44">
-        <v>296.60000000000002</v>
+        <v>323.60000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B45">
         <v>10338000</v>
@@ -906,18 +1429,18 @@
         <v>7600</v>
       </c>
       <c r="E45">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F45">
         <v>8</v>
       </c>
       <c r="G45">
-        <v>322.39999999999998</v>
+        <v>331.1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B46">
         <v>10338000</v>
@@ -929,18 +1452,18 @@
         <v>7600</v>
       </c>
       <c r="E46">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F46">
         <v>9</v>
       </c>
       <c r="G46">
-        <v>244.1</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>10338000</v>
@@ -952,18 +1475,18 @@
         <v>7600</v>
       </c>
       <c r="E47">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F47">
         <v>10</v>
       </c>
       <c r="G47">
-        <v>253.1</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B48">
         <v>10338000</v>
@@ -975,18 +1498,18 @@
         <v>7600</v>
       </c>
       <c r="E48">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F48">
         <v>11</v>
       </c>
       <c r="G48">
-        <v>225.7</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B49">
         <v>10338000</v>
@@ -998,18 +1521,18 @@
         <v>7600</v>
       </c>
       <c r="E49">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F49">
         <v>12</v>
       </c>
       <c r="G49">
-        <v>281</v>
+        <v>34.200000000000003</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B50">
         <v>10338000</v>
@@ -1021,18 +1544,18 @@
         <v>7600</v>
       </c>
       <c r="E50">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50">
-        <v>317.89999999999998</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <v>10338000</v>
@@ -1044,18 +1567,18 @@
         <v>7600</v>
       </c>
       <c r="E51">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F51">
         <v>2</v>
       </c>
       <c r="G51">
-        <v>253.6</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B52">
         <v>10338000</v>
@@ -1067,18 +1590,18 @@
         <v>7600</v>
       </c>
       <c r="E52">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F52">
         <v>3</v>
       </c>
       <c r="G52">
-        <v>278.8</v>
+        <v>195.9</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B53">
         <v>10338000</v>
@@ -1090,18 +1613,18 @@
         <v>7600</v>
       </c>
       <c r="E53">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F53">
         <v>4</v>
       </c>
       <c r="G53">
-        <v>243.3</v>
+        <v>268.5</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B54">
         <v>10338000</v>
@@ -1113,18 +1636,18 @@
         <v>7600</v>
       </c>
       <c r="E54">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F54">
         <v>5</v>
       </c>
       <c r="G54">
-        <v>256.3</v>
+        <v>275.10000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B55">
         <v>10338000</v>
@@ -1136,18 +1659,18 @@
         <v>7600</v>
       </c>
       <c r="E55">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F55">
         <v>6</v>
       </c>
       <c r="G55">
-        <v>297.60000000000002</v>
+        <v>232.8</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B56">
         <v>10338000</v>
@@ -1159,18 +1682,18 @@
         <v>7600</v>
       </c>
       <c r="E56">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F56">
         <v>7</v>
       </c>
       <c r="G56">
-        <v>366.6</v>
+        <v>244.3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B57">
         <v>10338000</v>
@@ -1182,18 +1705,18 @@
         <v>7600</v>
       </c>
       <c r="E57">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F57">
         <v>8</v>
       </c>
       <c r="G57">
-        <v>434.5</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B58">
         <v>10338000</v>
@@ -1205,18 +1728,18 @@
         <v>7600</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F58">
         <v>9</v>
       </c>
       <c r="G58">
-        <v>386.1</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B59">
         <v>10338000</v>
@@ -1228,18 +1751,18 @@
         <v>7600</v>
       </c>
       <c r="E59">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F59">
         <v>10</v>
       </c>
       <c r="G59">
-        <v>247.3</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B60">
         <v>10338000</v>
@@ -1251,18 +1774,18 @@
         <v>7600</v>
       </c>
       <c r="E60">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F60">
         <v>11</v>
       </c>
       <c r="G60">
-        <v>170.2</v>
+        <v>18.399999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B61">
         <v>10338000</v>
@@ -1274,18 +1797,18 @@
         <v>7600</v>
       </c>
       <c r="E61">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F61">
         <v>12</v>
       </c>
       <c r="G61">
-        <v>143.6</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B62">
         <v>10338000</v>
@@ -1297,18 +1820,18 @@
         <v>7600</v>
       </c>
       <c r="E62">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62">
-        <v>101.5</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B63">
         <v>10338000</v>
@@ -1320,18 +1843,18 @@
         <v>7600</v>
       </c>
       <c r="E63">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63">
-        <v>146.80000000000001</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B64">
         <v>10338000</v>
@@ -1343,18 +1866,18 @@
         <v>7600</v>
       </c>
       <c r="E64">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F64">
         <v>3</v>
       </c>
       <c r="G64">
-        <v>129.69999999999999</v>
+        <v>110.6</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B65">
         <v>10338000</v>
@@ -1366,18 +1889,18 @@
         <v>7600</v>
       </c>
       <c r="E65">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F65">
         <v>4</v>
       </c>
       <c r="G65">
-        <v>308.3</v>
+        <v>234.4</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B66">
         <v>10338000</v>
@@ -1389,18 +1912,18 @@
         <v>7600</v>
       </c>
       <c r="E66">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F66">
         <v>5</v>
       </c>
       <c r="G66">
-        <v>324.8</v>
+        <v>654.9</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B67">
         <v>10338000</v>
@@ -1412,18 +1935,18 @@
         <v>7600</v>
       </c>
       <c r="E67">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F67">
         <v>6</v>
       </c>
       <c r="G67">
-        <v>257.39999999999998</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B68">
         <v>10338000</v>
@@ -1435,18 +1958,18 @@
         <v>7600</v>
       </c>
       <c r="E68">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F68">
         <v>7</v>
       </c>
       <c r="G68">
-        <v>377.5</v>
+        <v>235.4</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B69">
         <v>10338000</v>
@@ -1458,18 +1981,18 @@
         <v>7600</v>
       </c>
       <c r="E69">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F69">
         <v>8</v>
       </c>
       <c r="G69">
-        <v>298</v>
+        <v>262.10000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B70">
         <v>10338000</v>
@@ -1481,18 +2004,18 @@
         <v>7600</v>
       </c>
       <c r="E70">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F70">
         <v>9</v>
       </c>
       <c r="G70">
-        <v>133.9</v>
+        <v>200.8</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B71">
         <v>10338000</v>
@@ -1504,18 +2027,18 @@
         <v>7600</v>
       </c>
       <c r="E71">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F71">
         <v>10</v>
       </c>
       <c r="G71">
-        <v>26.6</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B72">
         <v>10338000</v>
@@ -1527,18 +2050,18 @@
         <v>7600</v>
       </c>
       <c r="E72">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F72">
         <v>11</v>
       </c>
       <c r="G72">
-        <v>46.5</v>
+        <v>160.4</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B73">
         <v>10338000</v>
@@ -1550,18 +2073,18 @@
         <v>7600</v>
       </c>
       <c r="E73">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F73">
         <v>12</v>
       </c>
       <c r="G73">
-        <v>69.5</v>
+        <v>426.3</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B74">
         <v>10338000</v>
@@ -1573,18 +2096,18 @@
         <v>7600</v>
       </c>
       <c r="E74">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
       <c r="G74">
-        <v>149.9</v>
+        <v>242.2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B75">
         <v>10338000</v>
@@ -1596,18 +2119,18 @@
         <v>7600</v>
       </c>
       <c r="E75">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F75">
         <v>2</v>
       </c>
       <c r="G75">
-        <v>110.8</v>
+        <v>211.5</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B76">
         <v>10338000</v>
@@ -1619,18 +2142,18 @@
         <v>7600</v>
       </c>
       <c r="E76">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F76">
         <v>3</v>
       </c>
       <c r="G76">
-        <v>163.1</v>
+        <v>180.8</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B77">
         <v>10338000</v>
@@ -1642,18 +2165,18 @@
         <v>7600</v>
       </c>
       <c r="E77">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F77">
         <v>4</v>
       </c>
       <c r="G77">
-        <v>204.7</v>
+        <v>374.9</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B78">
         <v>10338000</v>
@@ -1665,18 +2188,18 @@
         <v>7600</v>
       </c>
       <c r="E78">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F78">
         <v>5</v>
       </c>
       <c r="G78">
-        <v>392.1</v>
+        <v>654.1</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B79">
         <v>10338000</v>
@@ -1688,18 +2211,18 @@
         <v>7600</v>
       </c>
       <c r="E79">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F79">
         <v>6</v>
       </c>
       <c r="G79">
-        <v>289.89999999999998</v>
+        <v>708.9</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B80">
         <v>10338000</v>
@@ -1711,18 +2234,18 @@
         <v>7600</v>
       </c>
       <c r="E80">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F80">
         <v>7</v>
       </c>
       <c r="G80">
-        <v>323.60000000000002</v>
+        <v>242.1</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B81">
         <v>10338000</v>
@@ -1734,18 +2257,18 @@
         <v>7600</v>
       </c>
       <c r="E81">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F81">
         <v>8</v>
       </c>
       <c r="G81">
-        <v>331.1</v>
+        <v>300.5</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B82">
         <v>10338000</v>
@@ -1757,18 +2280,18 @@
         <v>7600</v>
       </c>
       <c r="E82">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F82">
         <v>9</v>
       </c>
       <c r="G82">
-        <v>173.5</v>
+        <v>248.8</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B83">
         <v>10338000</v>
@@ -1780,18 +2303,18 @@
         <v>7600</v>
       </c>
       <c r="E83">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F83">
         <v>10</v>
       </c>
       <c r="G83">
-        <v>47.3</v>
+        <v>78.7</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B84">
         <v>10338000</v>
@@ -1803,18 +2326,18 @@
         <v>7600</v>
       </c>
       <c r="E84">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F84">
         <v>11</v>
       </c>
       <c r="G84">
-        <v>13.8</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B85">
         <v>10338000</v>
@@ -1826,18 +2349,18 @@
         <v>7600</v>
       </c>
       <c r="E85">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="F85">
         <v>12</v>
       </c>
       <c r="G85">
-        <v>34.200000000000003</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B86">
         <v>10338000</v>
@@ -1849,18 +2372,18 @@
         <v>7600</v>
       </c>
       <c r="E86">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F86">
         <v>1</v>
       </c>
       <c r="G86">
-        <v>55.1</v>
+        <v>260.60000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B87">
         <v>10338000</v>
@@ -1872,18 +2395,18 @@
         <v>7600</v>
       </c>
       <c r="E87">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F87">
         <v>2</v>
       </c>
       <c r="G87">
-        <v>81.8</v>
+        <v>208.1</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B88">
         <v>10338000</v>
@@ -1895,18 +2418,18 @@
         <v>7600</v>
       </c>
       <c r="E88">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F88">
         <v>3</v>
       </c>
       <c r="G88">
-        <v>195.9</v>
+        <v>202.5</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B89">
         <v>10338000</v>
@@ -1918,18 +2441,18 @@
         <v>7600</v>
       </c>
       <c r="E89">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F89">
         <v>4</v>
       </c>
       <c r="G89">
-        <v>268.5</v>
+        <v>202.2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B90">
         <v>10338000</v>
@@ -1941,18 +2464,18 @@
         <v>7600</v>
       </c>
       <c r="E90">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F90">
         <v>5</v>
       </c>
       <c r="G90">
-        <v>275.10000000000002</v>
+        <v>226.2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B91">
         <v>10338000</v>
@@ -1964,18 +2487,18 @@
         <v>7600</v>
       </c>
       <c r="E91">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F91">
         <v>6</v>
       </c>
       <c r="G91">
-        <v>232.8</v>
+        <v>217.5</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B92">
         <v>10338000</v>
@@ -1987,18 +2510,18 @@
         <v>7600</v>
       </c>
       <c r="E92">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F92">
         <v>7</v>
       </c>
       <c r="G92">
-        <v>244.3</v>
+        <v>305.89999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B93">
         <v>10338000</v>
@@ -2010,18 +2533,18 @@
         <v>7600</v>
       </c>
       <c r="E93">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F93">
         <v>8</v>
       </c>
       <c r="G93">
-        <v>83.3</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B94">
         <v>10338000</v>
@@ -2033,18 +2556,18 @@
         <v>7600</v>
       </c>
       <c r="E94">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F94">
         <v>9</v>
       </c>
       <c r="G94">
-        <v>12.2</v>
+        <v>284.60000000000002</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B95">
         <v>10338000</v>
@@ -2056,18 +2579,18 @@
         <v>7600</v>
       </c>
       <c r="E95">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F95">
         <v>10</v>
       </c>
       <c r="G95">
-        <v>11.6</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B96">
         <v>10338000</v>
@@ -2079,18 +2602,18 @@
         <v>7600</v>
       </c>
       <c r="E96">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F96">
         <v>11</v>
       </c>
       <c r="G96">
-        <v>18.399999999999999</v>
+        <v>206.4</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B97">
         <v>10338000</v>
@@ -2102,18 +2625,18 @@
         <v>7600</v>
       </c>
       <c r="E97">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F97">
         <v>12</v>
       </c>
       <c r="G97">
-        <v>21.5</v>
+        <v>240.2</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B98">
         <v>10338000</v>
@@ -2125,18 +2648,18 @@
         <v>7600</v>
       </c>
       <c r="E98">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F98">
         <v>1</v>
       </c>
       <c r="G98">
-        <v>24.9</v>
+        <v>187.3</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B99">
         <v>10338000</v>
@@ -2148,18 +2671,18 @@
         <v>7600</v>
       </c>
       <c r="E99">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F99">
         <v>2</v>
       </c>
       <c r="G99">
-        <v>39.1</v>
+        <v>192.3</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B100">
         <v>10338000</v>
@@ -2171,18 +2694,18 @@
         <v>7600</v>
       </c>
       <c r="E100">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F100">
         <v>3</v>
       </c>
       <c r="G100">
-        <v>110.6</v>
+        <v>126.9</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B101">
         <v>10338000</v>
@@ -2194,18 +2717,18 @@
         <v>7600</v>
       </c>
       <c r="E101">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F101">
         <v>4</v>
       </c>
       <c r="G101">
-        <v>234.4</v>
+        <v>214.3</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B102">
         <v>10338000</v>
@@ -2217,18 +2740,18 @@
         <v>7600</v>
       </c>
       <c r="E102">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F102">
         <v>5</v>
       </c>
       <c r="G102">
-        <v>654.9</v>
+        <v>318.10000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B103">
         <v>10338000</v>
@@ -2240,18 +2763,18 @@
         <v>7600</v>
       </c>
       <c r="E103">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F103">
         <v>6</v>
       </c>
       <c r="G103">
-        <v>357</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B104">
         <v>10338000</v>
@@ -2263,18 +2786,18 @@
         <v>7600</v>
       </c>
       <c r="E104">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F104">
         <v>7</v>
       </c>
       <c r="G104">
-        <v>235.4</v>
+        <v>405.5</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B105">
         <v>10338000</v>
@@ -2286,18 +2809,18 @@
         <v>7600</v>
       </c>
       <c r="E105">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F105">
         <v>8</v>
       </c>
       <c r="G105">
-        <v>262.10000000000002</v>
+        <v>411.6</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B106">
         <v>10338000</v>
@@ -2309,18 +2832,18 @@
         <v>7600</v>
       </c>
       <c r="E106">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F106">
         <v>9</v>
       </c>
       <c r="G106">
-        <v>200.8</v>
+        <v>216.8</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B107">
         <v>10338000</v>
@@ -2332,18 +2855,18 @@
         <v>7600</v>
       </c>
       <c r="E107">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F107">
         <v>10</v>
       </c>
       <c r="G107">
-        <v>87.5</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B108">
         <v>10338000</v>
@@ -2355,18 +2878,18 @@
         <v>7600</v>
       </c>
       <c r="E108">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F108">
         <v>11</v>
       </c>
       <c r="G108">
-        <v>160.4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B109">
         <v>10338000</v>
@@ -2378,18 +2901,18 @@
         <v>7600</v>
       </c>
       <c r="E109">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="F109">
         <v>12</v>
       </c>
       <c r="G109">
-        <v>426.3</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B110">
         <v>10338000</v>
@@ -2401,18 +2924,18 @@
         <v>7600</v>
       </c>
       <c r="E110">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F110">
         <v>1</v>
       </c>
       <c r="G110">
-        <v>242.2</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B111">
         <v>10338000</v>
@@ -2424,18 +2947,18 @@
         <v>7600</v>
       </c>
       <c r="E111">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F111">
         <v>2</v>
       </c>
       <c r="G111">
-        <v>211.5</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B112">
         <v>10338000</v>
@@ -2447,18 +2970,18 @@
         <v>7600</v>
       </c>
       <c r="E112">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F112">
         <v>3</v>
       </c>
       <c r="G112">
-        <v>180.8</v>
+        <v>146.9</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B113">
         <v>10338000</v>
@@ -2470,18 +2993,18 @@
         <v>7600</v>
       </c>
       <c r="E113">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F113">
         <v>4</v>
       </c>
       <c r="G113">
-        <v>374.9</v>
+        <v>224.7</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B114">
         <v>10338000</v>
@@ -2493,18 +3016,18 @@
         <v>7600</v>
       </c>
       <c r="E114">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F114">
         <v>5</v>
       </c>
       <c r="G114">
-        <v>654.1</v>
+        <v>465.2</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B115">
         <v>10338000</v>
@@ -2516,18 +3039,18 @@
         <v>7600</v>
       </c>
       <c r="E115">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F115">
         <v>6</v>
       </c>
       <c r="G115">
-        <v>708.9</v>
+        <v>226.7</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B116">
         <v>10338000</v>
@@ -2539,18 +3062,18 @@
         <v>7600</v>
       </c>
       <c r="E116">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F116">
         <v>7</v>
       </c>
       <c r="G116">
-        <v>242.1</v>
+        <v>346.3</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B117">
         <v>10338000</v>
@@ -2562,18 +3085,18 @@
         <v>7600</v>
       </c>
       <c r="E117">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F117">
         <v>8</v>
       </c>
       <c r="G117">
-        <v>300.5</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B118">
         <v>10338000</v>
@@ -2585,18 +3108,18 @@
         <v>7600</v>
       </c>
       <c r="E118">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F118">
         <v>9</v>
       </c>
       <c r="G118">
-        <v>248.8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B119">
         <v>10338000</v>
@@ -2608,18 +3131,18 @@
         <v>7600</v>
       </c>
       <c r="E119">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F119">
         <v>10</v>
       </c>
       <c r="G119">
-        <v>78.7</v>
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B120">
         <v>10338000</v>
@@ -2631,18 +3154,18 @@
         <v>7600</v>
       </c>
       <c r="E120">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F120">
         <v>11</v>
       </c>
       <c r="G120">
-        <v>97.7</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B121">
         <v>10338000</v>
@@ -2654,18 +3177,18 @@
         <v>7600</v>
       </c>
       <c r="E121">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="F121">
         <v>12</v>
       </c>
       <c r="G121">
-        <v>244.8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B122">
         <v>10338000</v>
@@ -2677,18 +3200,18 @@
         <v>7600</v>
       </c>
       <c r="E122">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F122">
         <v>1</v>
       </c>
       <c r="G122">
-        <v>260.60000000000002</v>
+        <v>30.7</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B123">
         <v>10338000</v>
@@ -2700,18 +3223,18 @@
         <v>7600</v>
       </c>
       <c r="E123">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F123">
         <v>2</v>
       </c>
       <c r="G123">
-        <v>208.1</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B124">
         <v>10338000</v>
@@ -2723,18 +3246,18 @@
         <v>7600</v>
       </c>
       <c r="E124">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F124">
         <v>3</v>
       </c>
       <c r="G124">
-        <v>202.5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B125">
         <v>10338000</v>
@@ -2746,18 +3269,18 @@
         <v>7600</v>
       </c>
       <c r="E125">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F125">
         <v>4</v>
       </c>
       <c r="G125">
-        <v>202.2</v>
+        <v>183.8</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B126">
         <v>10338000</v>
@@ -2769,18 +3292,18 @@
         <v>7600</v>
       </c>
       <c r="E126">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F126">
         <v>5</v>
       </c>
       <c r="G126">
-        <v>226.2</v>
+        <v>313.60000000000002</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B127">
         <v>10338000</v>
@@ -2792,18 +3315,18 @@
         <v>7600</v>
       </c>
       <c r="E127">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F127">
         <v>6</v>
       </c>
       <c r="G127">
-        <v>217.5</v>
+        <v>451.5</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B128">
         <v>10338000</v>
@@ -2815,18 +3338,18 @@
         <v>7600</v>
       </c>
       <c r="E128">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F128">
         <v>7</v>
       </c>
       <c r="G128">
-        <v>305.89999999999998</v>
+        <v>264.8</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B129">
         <v>10338000</v>
@@ -2838,18 +3361,18 @@
         <v>7600</v>
       </c>
       <c r="E129">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F129">
         <v>8</v>
       </c>
       <c r="G129">
-        <v>291.5</v>
+        <v>300.8</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B130">
         <v>10338000</v>
@@ -2861,18 +3384,18 @@
         <v>7600</v>
       </c>
       <c r="E130">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F130">
         <v>9</v>
       </c>
       <c r="G130">
-        <v>284.60000000000002</v>
+        <v>108.2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B131">
         <v>10338000</v>
@@ -2884,18 +3407,18 @@
         <v>7600</v>
       </c>
       <c r="E131">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F131">
         <v>10</v>
       </c>
       <c r="G131">
-        <v>277</v>
+        <v>124.3</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B132">
         <v>10338000</v>
@@ -2907,18 +3430,18 @@
         <v>7600</v>
       </c>
       <c r="E132">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F132">
         <v>11</v>
       </c>
       <c r="G132">
-        <v>206.4</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B133">
         <v>10338000</v>
@@ -2930,18 +3453,18 @@
         <v>7600</v>
       </c>
       <c r="E133">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F133">
         <v>12</v>
       </c>
       <c r="G133">
-        <v>240.2</v>
+        <v>170.7</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B134">
         <v>10338000</v>
@@ -2953,18 +3476,18 @@
         <v>7600</v>
       </c>
       <c r="E134">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
       <c r="G134">
-        <v>187.3</v>
+        <v>121.3</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B135">
         <v>10338000</v>
@@ -2976,18 +3499,18 @@
         <v>7600</v>
       </c>
       <c r="E135">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F135">
         <v>2</v>
       </c>
       <c r="G135">
-        <v>192.3</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B136">
         <v>10338000</v>
@@ -2999,18 +3522,18 @@
         <v>7600</v>
       </c>
       <c r="E136">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F136">
         <v>3</v>
       </c>
       <c r="G136">
-        <v>126.9</v>
+        <v>145.80000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B137">
         <v>10338000</v>
@@ -3022,18 +3545,18 @@
         <v>7600</v>
       </c>
       <c r="E137">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F137">
         <v>4</v>
       </c>
       <c r="G137">
-        <v>214.3</v>
+        <v>360.8</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B138">
         <v>10338000</v>
@@ -3045,18 +3568,18 @@
         <v>7600</v>
       </c>
       <c r="E138">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F138">
         <v>5</v>
       </c>
       <c r="G138">
-        <v>318.10000000000002</v>
+        <v>519</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B139">
         <v>10338000</v>
@@ -3068,18 +3591,18 @@
         <v>7600</v>
       </c>
       <c r="E139">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F139">
         <v>6</v>
       </c>
       <c r="G139">
-        <v>265</v>
+        <v>694.7</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B140">
         <v>10338000</v>
@@ -3091,18 +3614,18 @@
         <v>7600</v>
       </c>
       <c r="E140">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F140">
         <v>7</v>
       </c>
       <c r="G140">
-        <v>405.5</v>
+        <v>332.7</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B141">
         <v>10338000</v>
@@ -3114,18 +3637,18 @@
         <v>7600</v>
       </c>
       <c r="E141">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F141">
         <v>8</v>
       </c>
       <c r="G141">
-        <v>411.6</v>
+        <v>252.7</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B142">
         <v>10338000</v>
@@ -3137,18 +3660,18 @@
         <v>7600</v>
       </c>
       <c r="E142">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F142">
         <v>9</v>
       </c>
       <c r="G142">
-        <v>216.8</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B143">
         <v>10338000</v>
@@ -3160,18 +3683,18 @@
         <v>7600</v>
       </c>
       <c r="E143">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F143">
         <v>10</v>
       </c>
       <c r="G143">
-        <v>66.2</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B144">
         <v>10338000</v>
@@ -3183,18 +3706,18 @@
         <v>7600</v>
       </c>
       <c r="E144">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F144">
         <v>11</v>
       </c>
       <c r="G144">
-        <v>48</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B145">
         <v>10338000</v>
@@ -3206,18 +3729,18 @@
         <v>7600</v>
       </c>
       <c r="E145">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="F145">
         <v>12</v>
       </c>
       <c r="G145">
-        <v>15.4</v>
+        <v>174.2</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B146">
         <v>10338000</v>
@@ -3229,18 +3752,18 @@
         <v>7600</v>
       </c>
       <c r="E146">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
       <c r="G146">
-        <v>42.6</v>
+        <v>290.7</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B147">
         <v>10338000</v>
@@ -3252,18 +3775,18 @@
         <v>7600</v>
       </c>
       <c r="E147">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F147">
         <v>2</v>
       </c>
       <c r="G147">
-        <v>68.7</v>
+        <v>259.10000000000002</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B148">
         <v>10338000</v>
@@ -3275,18 +3798,18 @@
         <v>7600</v>
       </c>
       <c r="E148">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F148">
         <v>3</v>
       </c>
       <c r="G148">
-        <v>146.9</v>
+        <v>270.60000000000002</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B149">
         <v>10338000</v>
@@ -3298,18 +3821,18 @@
         <v>7600</v>
       </c>
       <c r="E149">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F149">
         <v>4</v>
       </c>
       <c r="G149">
-        <v>224.7</v>
+        <v>304.89999999999998</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B150">
         <v>10338000</v>
@@ -3321,18 +3844,18 @@
         <v>7600</v>
       </c>
       <c r="E150">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F150">
         <v>5</v>
       </c>
       <c r="G150">
-        <v>465.2</v>
+        <v>281.2</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B151">
         <v>10338000</v>
@@ -3344,18 +3867,18 @@
         <v>7600</v>
       </c>
       <c r="E151">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F151">
         <v>6</v>
       </c>
       <c r="G151">
-        <v>226.7</v>
+        <v>284.3</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B152">
         <v>10338000</v>
@@ -3367,18 +3890,18 @@
         <v>7600</v>
       </c>
       <c r="E152">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F152">
         <v>7</v>
       </c>
       <c r="G152">
-        <v>346.3</v>
+        <v>399.9</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B153">
         <v>10338000</v>
@@ -3390,18 +3913,18 @@
         <v>7600</v>
       </c>
       <c r="E153">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F153">
         <v>8</v>
       </c>
       <c r="G153">
-        <v>208</v>
+        <v>390</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B154">
         <v>10338000</v>
@@ -3413,18 +3936,18 @@
         <v>7600</v>
       </c>
       <c r="E154">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F154">
         <v>9</v>
       </c>
       <c r="G154">
-        <v>62</v>
+        <v>193.7</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B155">
         <v>10338000</v>
@@ -3436,18 +3959,18 @@
         <v>7600</v>
       </c>
       <c r="E155">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F155">
         <v>10</v>
       </c>
       <c r="G155">
-        <v>18.899999999999999</v>
+        <v>169.2</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B156">
         <v>10338000</v>
@@ -3459,18 +3982,18 @@
         <v>7600</v>
       </c>
       <c r="E156">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F156">
         <v>11</v>
       </c>
       <c r="G156">
-        <v>12.2</v>
+        <v>234.2</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B157">
         <v>10338000</v>
@@ -3482,18 +4005,18 @@
         <v>7600</v>
       </c>
       <c r="E157">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F157">
         <v>12</v>
       </c>
       <c r="G157">
-        <v>18</v>
+        <v>181.9</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B158">
         <v>10338000</v>
@@ -3505,18 +4028,18 @@
         <v>7600</v>
       </c>
       <c r="E158">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F158">
         <v>1</v>
       </c>
       <c r="G158">
-        <v>30.7</v>
+        <v>169.5</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B159">
         <v>10338000</v>
@@ -3528,18 +4051,18 @@
         <v>7600</v>
       </c>
       <c r="E159">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F159">
         <v>2</v>
       </c>
       <c r="G159">
-        <v>35.9</v>
+        <v>144.30000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B160">
         <v>10338000</v>
@@ -3551,18 +4074,18 @@
         <v>7600</v>
       </c>
       <c r="E160">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F160">
         <v>3</v>
       </c>
       <c r="G160">
-        <v>76</v>
+        <v>163.9</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B161">
         <v>10338000</v>
@@ -3574,18 +4097,18 @@
         <v>7600</v>
       </c>
       <c r="E161">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F161">
         <v>4</v>
       </c>
       <c r="G161">
-        <v>183.8</v>
+        <v>223.5</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B162">
         <v>10338000</v>
@@ -3597,18 +4120,18 @@
         <v>7600</v>
       </c>
       <c r="E162">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F162">
         <v>5</v>
       </c>
       <c r="G162">
-        <v>313.60000000000002</v>
+        <v>218.4</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B163">
         <v>10338000</v>
@@ -3620,18 +4143,18 @@
         <v>7600</v>
       </c>
       <c r="E163">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F163">
         <v>6</v>
       </c>
       <c r="G163">
-        <v>451.5</v>
+        <v>291.10000000000002</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B164">
         <v>10338000</v>
@@ -3643,18 +4166,18 @@
         <v>7600</v>
       </c>
       <c r="E164">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F164">
         <v>7</v>
       </c>
       <c r="G164">
-        <v>264.8</v>
+        <v>354.7</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B165">
         <v>10338000</v>
@@ -3666,18 +4189,18 @@
         <v>7600</v>
       </c>
       <c r="E165">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F165">
         <v>8</v>
       </c>
       <c r="G165">
-        <v>300.8</v>
+        <v>335.5</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B166">
         <v>10338000</v>
@@ -3689,18 +4212,18 @@
         <v>7600</v>
       </c>
       <c r="E166">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F166">
         <v>9</v>
       </c>
       <c r="G166">
-        <v>108.2</v>
+        <v>208.8</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B167">
         <v>10338000</v>
@@ -3712,18 +4235,18 @@
         <v>7600</v>
       </c>
       <c r="E167">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F167">
         <v>10</v>
       </c>
       <c r="G167">
-        <v>124.3</v>
+        <v>80.400000000000006</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B168">
         <v>10338000</v>
@@ -3735,18 +4258,18 @@
         <v>7600</v>
       </c>
       <c r="E168">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F168">
         <v>11</v>
       </c>
       <c r="G168">
-        <v>146</v>
+        <v>153.6</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B169">
         <v>10338000</v>
@@ -3758,18 +4281,18 @@
         <v>7600</v>
       </c>
       <c r="E169">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F169">
         <v>12</v>
       </c>
       <c r="G169">
-        <v>170.7</v>
+        <v>111.1</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B170">
         <v>10338000</v>
@@ -3781,18 +4304,18 @@
         <v>7600</v>
       </c>
       <c r="E170">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F170">
         <v>1</v>
       </c>
       <c r="G170">
-        <v>121.3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B171">
         <v>10338000</v>
@@ -3804,18 +4327,18 @@
         <v>7600</v>
       </c>
       <c r="E171">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F171">
         <v>2</v>
       </c>
       <c r="G171">
-        <v>106.8</v>
+        <v>144.5</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B172">
         <v>10338000</v>
@@ -3827,18 +4350,18 @@
         <v>7600</v>
       </c>
       <c r="E172">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F172">
         <v>3</v>
       </c>
       <c r="G172">
-        <v>145.80000000000001</v>
+        <v>137.69999999999999</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B173">
         <v>10338000</v>
@@ -3850,18 +4373,18 @@
         <v>7600</v>
       </c>
       <c r="E173">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F173">
         <v>4</v>
       </c>
       <c r="G173">
-        <v>360.8</v>
+        <v>173.4</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B174">
         <v>10338000</v>
@@ -3873,18 +4396,18 @@
         <v>7600</v>
       </c>
       <c r="E174">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F174">
         <v>5</v>
       </c>
       <c r="G174">
-        <v>519</v>
+        <v>241.7</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B175">
         <v>10338000</v>
@@ -3896,18 +4419,18 @@
         <v>7600</v>
       </c>
       <c r="E175">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F175">
         <v>6</v>
       </c>
       <c r="G175">
-        <v>694.7</v>
+        <v>284.5</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B176">
         <v>10338000</v>
@@ -3919,18 +4442,18 @@
         <v>7600</v>
       </c>
       <c r="E176">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F176">
         <v>7</v>
       </c>
       <c r="G176">
-        <v>332.7</v>
+        <v>211.1</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B177">
         <v>10338000</v>
@@ -3942,18 +4465,18 @@
         <v>7600</v>
       </c>
       <c r="E177">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F177">
         <v>8</v>
       </c>
       <c r="G177">
-        <v>252.7</v>
+        <v>120.7</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B178">
         <v>10338000</v>
@@ -3965,18 +4488,18 @@
         <v>7600</v>
       </c>
       <c r="E178">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F178">
         <v>9</v>
       </c>
       <c r="G178">
-        <v>147</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B179">
         <v>10338000</v>
@@ -3988,18 +4511,18 @@
         <v>7600</v>
       </c>
       <c r="E179">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F179">
         <v>10</v>
       </c>
       <c r="G179">
-        <v>70.5</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B180">
         <v>10338000</v>
@@ -4011,18 +4534,18 @@
         <v>7600</v>
       </c>
       <c r="E180">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F180">
         <v>11</v>
       </c>
       <c r="G180">
-        <v>63.4</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B181">
         <v>10338000</v>
@@ -4034,18 +4557,18 @@
         <v>7600</v>
       </c>
       <c r="E181">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F181">
         <v>12</v>
       </c>
       <c r="G181">
-        <v>174.2</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B182">
         <v>10338000</v>
@@ -4057,18 +4580,18 @@
         <v>7600</v>
       </c>
       <c r="E182">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F182">
         <v>1</v>
       </c>
       <c r="G182">
-        <v>290.7</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B183">
         <v>10338000</v>
@@ -4080,18 +4603,18 @@
         <v>7600</v>
       </c>
       <c r="E183">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F183">
         <v>2</v>
       </c>
       <c r="G183">
-        <v>259.10000000000002</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B184">
         <v>10338000</v>
@@ -4103,18 +4626,18 @@
         <v>7600</v>
       </c>
       <c r="E184">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F184">
         <v>3</v>
       </c>
       <c r="G184">
-        <v>270.60000000000002</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B185">
         <v>10338000</v>
@@ -4126,18 +4649,18 @@
         <v>7600</v>
       </c>
       <c r="E185">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F185">
         <v>4</v>
       </c>
       <c r="G185">
-        <v>304.89999999999998</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B186">
         <v>10338000</v>
@@ -4149,18 +4672,18 @@
         <v>7600</v>
       </c>
       <c r="E186">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F186">
         <v>5</v>
       </c>
       <c r="G186">
-        <v>281.2</v>
+        <v>54.7</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B187">
         <v>10338000</v>
@@ -4172,18 +4695,18 @@
         <v>7600</v>
       </c>
       <c r="E187">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F187">
         <v>6</v>
       </c>
       <c r="G187">
-        <v>284.3</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B188">
         <v>10338000</v>
@@ -4195,18 +4718,18 @@
         <v>7600</v>
       </c>
       <c r="E188">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F188">
         <v>7</v>
       </c>
       <c r="G188">
-        <v>399.9</v>
+        <v>7.18</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B189">
         <v>10338000</v>
@@ -4218,18 +4741,18 @@
         <v>7600</v>
       </c>
       <c r="E189">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F189">
         <v>8</v>
       </c>
       <c r="G189">
-        <v>390</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B190">
         <v>10338000</v>
@@ -4241,18 +4764,18 @@
         <v>7600</v>
       </c>
       <c r="E190">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F190">
         <v>9</v>
       </c>
       <c r="G190">
-        <v>193.7</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B191">
         <v>10338000</v>
@@ -4264,18 +4787,18 @@
         <v>7600</v>
       </c>
       <c r="E191">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F191">
         <v>10</v>
       </c>
       <c r="G191">
-        <v>169.2</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B192">
         <v>10338000</v>
@@ -4287,18 +4810,18 @@
         <v>7600</v>
       </c>
       <c r="E192">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F192">
         <v>11</v>
       </c>
       <c r="G192">
-        <v>234.2</v>
+        <v>9.1199999999999992</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B193">
         <v>10338000</v>
@@ -4310,18 +4833,18 @@
         <v>7600</v>
       </c>
       <c r="E193">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F193">
         <v>12</v>
       </c>
       <c r="G193">
-        <v>181.9</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B194">
         <v>10338000</v>
@@ -4333,18 +4856,18 @@
         <v>7600</v>
       </c>
       <c r="E194">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="F194">
         <v>1</v>
       </c>
       <c r="G194">
-        <v>169.5</v>
+        <v>78.8</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B195">
         <v>10338000</v>
@@ -4356,18 +4879,18 @@
         <v>7600</v>
       </c>
       <c r="E195">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="F195">
         <v>2</v>
       </c>
       <c r="G195">
-        <v>144.30000000000001</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B196">
         <v>10338000</v>
@@ -4379,18 +4902,18 @@
         <v>7600</v>
       </c>
       <c r="E196">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="F196">
         <v>3</v>
       </c>
       <c r="G196">
-        <v>163.9</v>
+        <v>226.5</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B197">
         <v>10338000</v>
@@ -4402,18 +4925,18 @@
         <v>7600</v>
       </c>
       <c r="E197">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="F197">
         <v>4</v>
       </c>
       <c r="G197">
-        <v>223.5</v>
+        <v>250.2</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B198">
         <v>10338000</v>
@@ -4425,18 +4948,18 @@
         <v>7600</v>
       </c>
       <c r="E198">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="F198">
         <v>5</v>
       </c>
       <c r="G198">
-        <v>218.4</v>
+        <v>301.8</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B199">
         <v>10338000</v>
@@ -4448,18 +4971,18 @@
         <v>7600</v>
       </c>
       <c r="E199">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="F199">
         <v>6</v>
       </c>
       <c r="G199">
-        <v>291.10000000000002</v>
+        <v>207.9</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B200">
         <v>10338000</v>
@@ -4471,18 +4994,18 @@
         <v>7600</v>
       </c>
       <c r="E200">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="F200">
         <v>7</v>
       </c>
       <c r="G200">
-        <v>354.7</v>
+        <v>137.6</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B201">
         <v>10338000</v>
@@ -4494,18 +5017,18 @@
         <v>7600</v>
       </c>
       <c r="E201">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="F201">
         <v>8</v>
       </c>
       <c r="G201">
-        <v>335.5</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="B202">
         <v>10338000</v>
@@ -4517,840 +5040,12 @@
         <v>7600</v>
       </c>
       <c r="E202">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="F202">
         <v>9</v>
       </c>
       <c r="G202">
-        <v>208.8</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>39</v>
-      </c>
-      <c r="B203">
-        <v>10338000</v>
-      </c>
-      <c r="C203">
-        <v>60</v>
-      </c>
-      <c r="D203">
-        <v>7600</v>
-      </c>
-      <c r="E203">
-        <v>2013</v>
-      </c>
-      <c r="F203">
-        <v>10</v>
-      </c>
-      <c r="G203">
-        <v>80.400000000000006</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>39</v>
-      </c>
-      <c r="B204">
-        <v>10338000</v>
-      </c>
-      <c r="C204">
-        <v>60</v>
-      </c>
-      <c r="D204">
-        <v>7600</v>
-      </c>
-      <c r="E204">
-        <v>2013</v>
-      </c>
-      <c r="F204">
-        <v>11</v>
-      </c>
-      <c r="G204">
-        <v>153.6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>39</v>
-      </c>
-      <c r="B205">
-        <v>10338000</v>
-      </c>
-      <c r="C205">
-        <v>60</v>
-      </c>
-      <c r="D205">
-        <v>7600</v>
-      </c>
-      <c r="E205">
-        <v>2013</v>
-      </c>
-      <c r="F205">
-        <v>12</v>
-      </c>
-      <c r="G205">
-        <v>111.1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>39</v>
-      </c>
-      <c r="B206">
-        <v>10338000</v>
-      </c>
-      <c r="C206">
-        <v>60</v>
-      </c>
-      <c r="D206">
-        <v>7600</v>
-      </c>
-      <c r="E206">
-        <v>2014</v>
-      </c>
-      <c r="F206">
-        <v>1</v>
-      </c>
-      <c r="G206">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>39</v>
-      </c>
-      <c r="B207">
-        <v>10338000</v>
-      </c>
-      <c r="C207">
-        <v>60</v>
-      </c>
-      <c r="D207">
-        <v>7600</v>
-      </c>
-      <c r="E207">
-        <v>2014</v>
-      </c>
-      <c r="F207">
-        <v>2</v>
-      </c>
-      <c r="G207">
-        <v>144.5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>39</v>
-      </c>
-      <c r="B208">
-        <v>10338000</v>
-      </c>
-      <c r="C208">
-        <v>60</v>
-      </c>
-      <c r="D208">
-        <v>7600</v>
-      </c>
-      <c r="E208">
-        <v>2014</v>
-      </c>
-      <c r="F208">
-        <v>3</v>
-      </c>
-      <c r="G208">
-        <v>137.69999999999999</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>39</v>
-      </c>
-      <c r="B209">
-        <v>10338000</v>
-      </c>
-      <c r="C209">
-        <v>60</v>
-      </c>
-      <c r="D209">
-        <v>7600</v>
-      </c>
-      <c r="E209">
-        <v>2014</v>
-      </c>
-      <c r="F209">
-        <v>4</v>
-      </c>
-      <c r="G209">
-        <v>173.4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>39</v>
-      </c>
-      <c r="B210">
-        <v>10338000</v>
-      </c>
-      <c r="C210">
-        <v>60</v>
-      </c>
-      <c r="D210">
-        <v>7600</v>
-      </c>
-      <c r="E210">
-        <v>2014</v>
-      </c>
-      <c r="F210">
-        <v>5</v>
-      </c>
-      <c r="G210">
-        <v>241.7</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>39</v>
-      </c>
-      <c r="B211">
-        <v>10338000</v>
-      </c>
-      <c r="C211">
-        <v>60</v>
-      </c>
-      <c r="D211">
-        <v>7600</v>
-      </c>
-      <c r="E211">
-        <v>2014</v>
-      </c>
-      <c r="F211">
-        <v>6</v>
-      </c>
-      <c r="G211">
-        <v>284.5</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>39</v>
-      </c>
-      <c r="B212">
-        <v>10338000</v>
-      </c>
-      <c r="C212">
-        <v>60</v>
-      </c>
-      <c r="D212">
-        <v>7600</v>
-      </c>
-      <c r="E212">
-        <v>2014</v>
-      </c>
-      <c r="F212">
-        <v>7</v>
-      </c>
-      <c r="G212">
-        <v>211.1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>39</v>
-      </c>
-      <c r="B213">
-        <v>10338000</v>
-      </c>
-      <c r="C213">
-        <v>60</v>
-      </c>
-      <c r="D213">
-        <v>7600</v>
-      </c>
-      <c r="E213">
-        <v>2014</v>
-      </c>
-      <c r="F213">
-        <v>8</v>
-      </c>
-      <c r="G213">
-        <v>120.7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>39</v>
-      </c>
-      <c r="B214">
-        <v>10338000</v>
-      </c>
-      <c r="C214">
-        <v>60</v>
-      </c>
-      <c r="D214">
-        <v>7600</v>
-      </c>
-      <c r="E214">
-        <v>2014</v>
-      </c>
-      <c r="F214">
-        <v>9</v>
-      </c>
-      <c r="G214">
-        <v>29.3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>39</v>
-      </c>
-      <c r="B215">
-        <v>10338000</v>
-      </c>
-      <c r="C215">
-        <v>60</v>
-      </c>
-      <c r="D215">
-        <v>7600</v>
-      </c>
-      <c r="E215">
-        <v>2014</v>
-      </c>
-      <c r="F215">
-        <v>10</v>
-      </c>
-      <c r="G215">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>39</v>
-      </c>
-      <c r="B216">
-        <v>10338000</v>
-      </c>
-      <c r="C216">
-        <v>60</v>
-      </c>
-      <c r="D216">
-        <v>7600</v>
-      </c>
-      <c r="E216">
-        <v>2014</v>
-      </c>
-      <c r="F216">
-        <v>11</v>
-      </c>
-      <c r="G216">
-        <v>9.57</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>39</v>
-      </c>
-      <c r="B217">
-        <v>10338000</v>
-      </c>
-      <c r="C217">
-        <v>60</v>
-      </c>
-      <c r="D217">
-        <v>7600</v>
-      </c>
-      <c r="E217">
-        <v>2014</v>
-      </c>
-      <c r="F217">
-        <v>12</v>
-      </c>
-      <c r="G217">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>39</v>
-      </c>
-      <c r="B218">
-        <v>10338000</v>
-      </c>
-      <c r="C218">
-        <v>60</v>
-      </c>
-      <c r="D218">
-        <v>7600</v>
-      </c>
-      <c r="E218">
-        <v>2015</v>
-      </c>
-      <c r="F218">
-        <v>1</v>
-      </c>
-      <c r="G218">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>39</v>
-      </c>
-      <c r="B219">
-        <v>10338000</v>
-      </c>
-      <c r="C219">
-        <v>60</v>
-      </c>
-      <c r="D219">
-        <v>7600</v>
-      </c>
-      <c r="E219">
-        <v>2015</v>
-      </c>
-      <c r="F219">
-        <v>2</v>
-      </c>
-      <c r="G219">
-        <v>109.4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>39</v>
-      </c>
-      <c r="B220">
-        <v>10338000</v>
-      </c>
-      <c r="C220">
-        <v>60</v>
-      </c>
-      <c r="D220">
-        <v>7600</v>
-      </c>
-      <c r="E220">
-        <v>2015</v>
-      </c>
-      <c r="F220">
-        <v>3</v>
-      </c>
-      <c r="G220">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>39</v>
-      </c>
-      <c r="B221">
-        <v>10338000</v>
-      </c>
-      <c r="C221">
-        <v>60</v>
-      </c>
-      <c r="D221">
-        <v>7600</v>
-      </c>
-      <c r="E221">
-        <v>2015</v>
-      </c>
-      <c r="F221">
-        <v>4</v>
-      </c>
-      <c r="G221">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>39</v>
-      </c>
-      <c r="B222">
-        <v>10338000</v>
-      </c>
-      <c r="C222">
-        <v>60</v>
-      </c>
-      <c r="D222">
-        <v>7600</v>
-      </c>
-      <c r="E222">
-        <v>2015</v>
-      </c>
-      <c r="F222">
-        <v>5</v>
-      </c>
-      <c r="G222">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>39</v>
-      </c>
-      <c r="B223">
-        <v>10338000</v>
-      </c>
-      <c r="C223">
-        <v>60</v>
-      </c>
-      <c r="D223">
-        <v>7600</v>
-      </c>
-      <c r="E223">
-        <v>2015</v>
-      </c>
-      <c r="F223">
-        <v>6</v>
-      </c>
-      <c r="G223">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>39</v>
-      </c>
-      <c r="B224">
-        <v>10338000</v>
-      </c>
-      <c r="C224">
-        <v>60</v>
-      </c>
-      <c r="D224">
-        <v>7600</v>
-      </c>
-      <c r="E224">
-        <v>2015</v>
-      </c>
-      <c r="F224">
-        <v>7</v>
-      </c>
-      <c r="G224">
-        <v>7.18</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>39</v>
-      </c>
-      <c r="B225">
-        <v>10338000</v>
-      </c>
-      <c r="C225">
-        <v>60</v>
-      </c>
-      <c r="D225">
-        <v>7600</v>
-      </c>
-      <c r="E225">
-        <v>2015</v>
-      </c>
-      <c r="F225">
-        <v>8</v>
-      </c>
-      <c r="G225">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>39</v>
-      </c>
-      <c r="B226">
-        <v>10338000</v>
-      </c>
-      <c r="C226">
-        <v>60</v>
-      </c>
-      <c r="D226">
-        <v>7600</v>
-      </c>
-      <c r="E226">
-        <v>2015</v>
-      </c>
-      <c r="F226">
-        <v>9</v>
-      </c>
-      <c r="G226">
-        <v>3.27</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>39</v>
-      </c>
-      <c r="B227">
-        <v>10338000</v>
-      </c>
-      <c r="C227">
-        <v>60</v>
-      </c>
-      <c r="D227">
-        <v>7600</v>
-      </c>
-      <c r="E227">
-        <v>2015</v>
-      </c>
-      <c r="F227">
-        <v>10</v>
-      </c>
-      <c r="G227">
-        <v>5.98</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>39</v>
-      </c>
-      <c r="B228">
-        <v>10338000</v>
-      </c>
-      <c r="C228">
-        <v>60</v>
-      </c>
-      <c r="D228">
-        <v>7600</v>
-      </c>
-      <c r="E228">
-        <v>2015</v>
-      </c>
-      <c r="F228">
-        <v>11</v>
-      </c>
-      <c r="G228">
-        <v>9.1199999999999992</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>39</v>
-      </c>
-      <c r="B229">
-        <v>10338000</v>
-      </c>
-      <c r="C229">
-        <v>60</v>
-      </c>
-      <c r="D229">
-        <v>7600</v>
-      </c>
-      <c r="E229">
-        <v>2015</v>
-      </c>
-      <c r="F229">
-        <v>12</v>
-      </c>
-      <c r="G229">
-        <v>34.9</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>39</v>
-      </c>
-      <c r="B230">
-        <v>10338000</v>
-      </c>
-      <c r="C230">
-        <v>60</v>
-      </c>
-      <c r="D230">
-        <v>7600</v>
-      </c>
-      <c r="E230">
-        <v>2016</v>
-      </c>
-      <c r="F230">
-        <v>1</v>
-      </c>
-      <c r="G230">
-        <v>78.8</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>39</v>
-      </c>
-      <c r="B231">
-        <v>10338000</v>
-      </c>
-      <c r="C231">
-        <v>60</v>
-      </c>
-      <c r="D231">
-        <v>7600</v>
-      </c>
-      <c r="E231">
-        <v>2016</v>
-      </c>
-      <c r="F231">
-        <v>2</v>
-      </c>
-      <c r="G231">
-        <v>106.6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>39</v>
-      </c>
-      <c r="B232">
-        <v>10338000</v>
-      </c>
-      <c r="C232">
-        <v>60</v>
-      </c>
-      <c r="D232">
-        <v>7600</v>
-      </c>
-      <c r="E232">
-        <v>2016</v>
-      </c>
-      <c r="F232">
-        <v>3</v>
-      </c>
-      <c r="G232">
-        <v>226.5</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>39</v>
-      </c>
-      <c r="B233">
-        <v>10338000</v>
-      </c>
-      <c r="C233">
-        <v>60</v>
-      </c>
-      <c r="D233">
-        <v>7600</v>
-      </c>
-      <c r="E233">
-        <v>2016</v>
-      </c>
-      <c r="F233">
-        <v>4</v>
-      </c>
-      <c r="G233">
-        <v>250.2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>39</v>
-      </c>
-      <c r="B234">
-        <v>10338000</v>
-      </c>
-      <c r="C234">
-        <v>60</v>
-      </c>
-      <c r="D234">
-        <v>7600</v>
-      </c>
-      <c r="E234">
-        <v>2016</v>
-      </c>
-      <c r="F234">
-        <v>5</v>
-      </c>
-      <c r="G234">
-        <v>301.8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>39</v>
-      </c>
-      <c r="B235">
-        <v>10338000</v>
-      </c>
-      <c r="C235">
-        <v>60</v>
-      </c>
-      <c r="D235">
-        <v>7600</v>
-      </c>
-      <c r="E235">
-        <v>2016</v>
-      </c>
-      <c r="F235">
-        <v>6</v>
-      </c>
-      <c r="G235">
-        <v>207.9</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>39</v>
-      </c>
-      <c r="B236">
-        <v>10338000</v>
-      </c>
-      <c r="C236">
-        <v>60</v>
-      </c>
-      <c r="D236">
-        <v>7600</v>
-      </c>
-      <c r="E236">
-        <v>2016</v>
-      </c>
-      <c r="F236">
-        <v>7</v>
-      </c>
-      <c r="G236">
-        <v>137.6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>39</v>
-      </c>
-      <c r="B237">
-        <v>10338000</v>
-      </c>
-      <c r="C237">
-        <v>60</v>
-      </c>
-      <c r="D237">
-        <v>7600</v>
-      </c>
-      <c r="E237">
-        <v>2016</v>
-      </c>
-      <c r="F237">
-        <v>8</v>
-      </c>
-      <c r="G237">
-        <v>47.4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>39</v>
-      </c>
-      <c r="B238">
-        <v>10338000</v>
-      </c>
-      <c r="C238">
-        <v>60</v>
-      </c>
-      <c r="D238">
-        <v>7600</v>
-      </c>
-      <c r="E238">
-        <v>2016</v>
-      </c>
-      <c r="F238">
-        <v>9</v>
-      </c>
-      <c r="G238">
         <v>9.06</v>
       </c>
     </row>
